--- a/Output/Reforested_other/Reforested_other_Adk_parcel_tax.xlsx
+++ b/Output/Reforested_other/Reforested_other_Adk_parcel_tax.xlsx
@@ -374,25 +374,25 @@
     <t>Municipal Tax subsidy per dollar income</t>
   </si>
   <si>
+    <t>173800</t>
+  </si>
+  <si>
+    <t>173400</t>
+  </si>
+  <si>
     <t>303800</t>
   </si>
   <si>
-    <t>173400</t>
-  </si>
-  <si>
-    <t>173800</t>
-  </si>
-  <si>
     <t>nan</t>
   </si>
   <si>
+    <t>213602</t>
+  </si>
+  <si>
+    <t>413201</t>
+  </si>
+  <si>
     <t>302601</t>
-  </si>
-  <si>
-    <t>213602</t>
-  </si>
-  <si>
-    <t>413201</t>
   </si>
   <si>
     <t>273803</t>
@@ -2051,61 +2051,61 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C2">
-        <v>0.01</v>
+        <v>0.3</v>
       </c>
       <c r="D2">
-        <v>0.003899999999999999</v>
+        <v>0.295708</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G2">
-        <v>30063.123</v>
+        <v>65428.87002</v>
       </c>
       <c r="H2">
-        <v>75204.06899</v>
+        <v>332732.82696</v>
       </c>
       <c r="I2">
-        <v>99571.84798999999</v>
+        <v>411854.4990299999</v>
       </c>
       <c r="J2">
-        <v>3.326334393136735E-07</v>
+        <v>4.585131913607821E-06</v>
       </c>
       <c r="K2">
-        <v>1.329715284598459E-07</v>
+        <v>9.016242934036232E-07</v>
       </c>
       <c r="L2">
-        <v>1.004299930338171E-07</v>
+        <v>7.284125843145097E-07</v>
       </c>
       <c r="M2">
-        <v>32.854</v>
+        <v>46.71</v>
       </c>
       <c r="N2">
-        <v>1184315.3</v>
+        <v>8346047.4</v>
       </c>
       <c r="O2">
-        <v>53452</v>
+        <v>229313</v>
       </c>
       <c r="P2">
-        <v>53452</v>
+        <v>229313</v>
       </c>
       <c r="Q2">
-        <v>49696</v>
+        <v>211258</v>
       </c>
       <c r="R2">
-        <v>3756</v>
+        <v>18055</v>
       </c>
       <c r="S2">
-        <v>1.870837386814338E-07</v>
+        <v>1.308255528469821E-06</v>
       </c>
       <c r="T2">
-        <v>8.443697383627486E-09</v>
+        <v>3.59451589024045E-08</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -2113,61 +2113,61 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>0.003899999999999999</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G3">
-        <v>66344.78599999999</v>
+        <v>30063.123</v>
       </c>
       <c r="H3">
-        <v>333781.61509</v>
+        <v>75204.06899</v>
       </c>
       <c r="I3">
-        <v>478834.04345</v>
+        <v>99571.84798999999</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>3.326334393136735E-07</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>1.329715284598459E-07</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>1.004299930338171E-07</v>
       </c>
       <c r="M3">
-        <v>35.294</v>
+        <v>32.854</v>
       </c>
       <c r="N3">
-        <v>5128666.6</v>
+        <v>1184315.3</v>
       </c>
       <c r="O3">
-        <v>229074</v>
+        <v>53452</v>
       </c>
       <c r="P3">
-        <v>229074</v>
+        <v>53452</v>
       </c>
       <c r="Q3">
-        <v>193460</v>
+        <v>49696</v>
       </c>
       <c r="R3">
-        <v>35614</v>
+        <v>3756</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>1.870837386814338E-07</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>8.443697383627486E-09</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -2175,61 +2175,61 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C4">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>0.295708</v>
+        <v>0</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G4">
-        <v>65428.87002</v>
+        <v>66344.78599999999</v>
       </c>
       <c r="H4">
-        <v>332732.82696</v>
+        <v>333781.61509</v>
       </c>
       <c r="I4">
-        <v>411854.4990299999</v>
+        <v>478834.04345</v>
       </c>
       <c r="J4">
-        <v>4.585131913607821E-06</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>9.016242934036232E-07</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>7.284125843145097E-07</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>46.71</v>
+        <v>35.294</v>
       </c>
       <c r="N4">
-        <v>8346047.4</v>
+        <v>5128666.6</v>
       </c>
       <c r="O4">
-        <v>229313</v>
+        <v>229074</v>
       </c>
       <c r="P4">
-        <v>229313</v>
+        <v>229074</v>
       </c>
       <c r="Q4">
-        <v>211258</v>
+        <v>193460</v>
       </c>
       <c r="R4">
-        <v>18055</v>
+        <v>35614</v>
       </c>
       <c r="S4">
-        <v>1.308255528469821E-06</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>3.59451589024045E-08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -2341,70 +2341,70 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.86</v>
       </c>
       <c r="D2">
-        <v>0.002864</v>
+        <v>0.431325</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H2" t="s">
         <v>118</v>
       </c>
       <c r="I2">
-        <v>559.64574</v>
+        <v>510.694</v>
       </c>
       <c r="J2">
-        <v>2431.34345</v>
+        <v>932.431</v>
       </c>
       <c r="K2">
-        <v>2782.96917</v>
+        <v>1341.342</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.001683982972190783</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.0009223202574774969</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.0006411489388985061</v>
       </c>
       <c r="O2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="P2">
-        <v>33.65</v>
+        <v>33.75</v>
       </c>
       <c r="Q2">
-        <v>31423.5</v>
+        <v>10250.4</v>
       </c>
       <c r="R2">
-        <v>1581</v>
+        <v>571</v>
       </c>
       <c r="S2">
-        <v>1581</v>
+        <v>571</v>
       </c>
       <c r="T2">
-        <v>1533</v>
+        <v>545</v>
       </c>
       <c r="U2">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>0.001506129597197898</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>8.389916491063764E-05</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -2412,70 +2412,70 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C3">
-        <v>0.01</v>
+        <v>0.35</v>
       </c>
       <c r="D3">
-        <v>0.011355</v>
+        <v>0.352093</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H3" t="s">
-        <v>119</v>
+        <v>82</v>
       </c>
       <c r="I3">
-        <v>804.52229</v>
+        <v>695.8010899999999</v>
       </c>
       <c r="J3">
-        <v>1212.53037</v>
+        <v>1486.54899</v>
       </c>
       <c r="K3">
-        <v>1563.41628</v>
+        <v>1934.91919</v>
       </c>
       <c r="L3">
-        <v>1.242973640916773E-05</v>
+        <v>0.0005030173206540967</v>
       </c>
       <c r="M3">
-        <v>8.247216108904554E-06</v>
+        <v>0.0002354446455208987</v>
       </c>
       <c r="N3">
-        <v>6.396249116709978E-06</v>
+        <v>0.0001808861071867296</v>
       </c>
       <c r="O3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P3">
-        <v>33.485</v>
+        <v>34.6</v>
       </c>
       <c r="Q3">
-        <v>35967.1</v>
+        <v>58863.2</v>
       </c>
       <c r="R3">
-        <v>1805</v>
+        <v>2048</v>
       </c>
       <c r="S3">
-        <v>1805</v>
+        <v>2048</v>
       </c>
       <c r="T3">
-        <v>1712</v>
+        <v>1871</v>
       </c>
       <c r="U3">
-        <v>93</v>
+        <v>177</v>
       </c>
       <c r="V3">
-        <v>5.540166204986149E-06</v>
+        <v>0.0001708984375</v>
       </c>
       <c r="W3">
-        <v>2.780318680127116E-07</v>
+        <v>5.945990024327593E-06</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -2483,70 +2483,70 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C4">
-        <v>0.35</v>
+        <v>0.01</v>
       </c>
       <c r="D4">
-        <v>0.352093</v>
+        <v>0.011355</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H4" t="s">
-        <v>82</v>
+        <v>119</v>
       </c>
       <c r="I4">
-        <v>695.8010899999999</v>
+        <v>804.52229</v>
       </c>
       <c r="J4">
-        <v>1486.54899</v>
+        <v>1212.53037</v>
       </c>
       <c r="K4">
-        <v>1934.91919</v>
+        <v>1563.41628</v>
       </c>
       <c r="L4">
-        <v>0.0005030173206540967</v>
+        <v>1.242973640916773E-05</v>
       </c>
       <c r="M4">
-        <v>0.0002354446455208987</v>
+        <v>8.247216108904554E-06</v>
       </c>
       <c r="N4">
-        <v>0.0001808861071867296</v>
+        <v>6.396249116709978E-06</v>
       </c>
       <c r="O4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="P4">
-        <v>34.6</v>
+        <v>33.485</v>
       </c>
       <c r="Q4">
-        <v>58863.2</v>
+        <v>35967.1</v>
       </c>
       <c r="R4">
-        <v>2048</v>
+        <v>1805</v>
       </c>
       <c r="S4">
-        <v>2048</v>
+        <v>1805</v>
       </c>
       <c r="T4">
-        <v>1871</v>
+        <v>1712</v>
       </c>
       <c r="U4">
-        <v>177</v>
+        <v>93</v>
       </c>
       <c r="V4">
-        <v>0.0001708984375</v>
+        <v>5.540166204986149E-06</v>
       </c>
       <c r="W4">
-        <v>5.945990024327593E-06</v>
+        <v>2.780318680127116E-07</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -2554,70 +2554,70 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C5">
-        <v>0.86</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>0.431325</v>
+        <v>0.002864</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G5" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="H5" t="s">
         <v>120</v>
       </c>
       <c r="I5">
-        <v>510.694</v>
+        <v>559.64574</v>
       </c>
       <c r="J5">
-        <v>932.431</v>
+        <v>2431.34345</v>
       </c>
       <c r="K5">
-        <v>1341.342</v>
+        <v>2782.96917</v>
       </c>
       <c r="L5">
-        <v>0.001683982972190783</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.0009223202574774969</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0.0006411489388985061</v>
+        <v>0</v>
       </c>
       <c r="O5" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="P5">
-        <v>33.75</v>
+        <v>33.65</v>
       </c>
       <c r="Q5">
-        <v>10250.4</v>
+        <v>31423.5</v>
       </c>
       <c r="R5">
-        <v>571</v>
+        <v>1581</v>
       </c>
       <c r="S5">
-        <v>571</v>
+        <v>1581</v>
       </c>
       <c r="T5">
-        <v>545</v>
+        <v>1533</v>
       </c>
       <c r="U5">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="V5">
-        <v>0.001506129597197898</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>8.389916491063764E-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -2699,37 +2699,37 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C2">
-        <v>0.02</v>
+        <v>2.63</v>
       </c>
       <c r="D2">
-        <v>0.022032</v>
+        <v>1.3141035</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2" t="s">
         <v>122</v>
       </c>
       <c r="G2">
-        <v>9071.319</v>
+        <v>4271.958</v>
       </c>
       <c r="H2">
-        <v>11480.929</v>
+        <v>5988.453</v>
       </c>
       <c r="I2">
-        <v>31079.911</v>
+        <v>20450.754</v>
       </c>
       <c r="J2">
-        <v>2.204751040063744E-06</v>
+        <v>0.0006156427567874029</v>
       </c>
       <c r="K2">
-        <v>1.74201930871622E-06</v>
+        <v>0.0004391785324189736</v>
       </c>
       <c r="L2">
-        <v>6.435024862201182E-07</v>
+        <v>0.0001286016153732033</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -2737,37 +2737,37 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C3">
-        <v>2.63</v>
+        <v>1.78</v>
       </c>
       <c r="D3">
-        <v>1.3141035</v>
+        <v>1.783019</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3" t="s">
         <v>123</v>
       </c>
       <c r="G3">
-        <v>4271.958</v>
+        <v>9932.812</v>
       </c>
       <c r="H3">
-        <v>5988.453</v>
+        <v>11966.999</v>
       </c>
       <c r="I3">
-        <v>20450.754</v>
+        <v>23392.961</v>
       </c>
       <c r="J3">
-        <v>0.0006156427567874029</v>
+        <v>0.0001792040360775982</v>
       </c>
       <c r="K3">
-        <v>0.0004391785324189736</v>
+        <v>0.0001487423872935897</v>
       </c>
       <c r="L3">
-        <v>0.0001286016153732033</v>
+        <v>7.609126523145147E-05</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -2775,13 +2775,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C4">
-        <v>1.78</v>
+        <v>0.02</v>
       </c>
       <c r="D4">
-        <v>1.783019</v>
+        <v>0.022032</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -2790,22 +2790,22 @@
         <v>124</v>
       </c>
       <c r="G4">
-        <v>9932.812</v>
+        <v>9071.319</v>
       </c>
       <c r="H4">
-        <v>11966.999</v>
+        <v>11480.929</v>
       </c>
       <c r="I4">
-        <v>23392.961</v>
+        <v>31079.911</v>
       </c>
       <c r="J4">
-        <v>0.0001792040360775982</v>
+        <v>2.204751040063744E-06</v>
       </c>
       <c r="K4">
-        <v>0.0001487423872935897</v>
+        <v>1.74201930871622E-06</v>
       </c>
       <c r="L4">
-        <v>7.609126523145147E-05</v>
+        <v>6.435024862201182E-07</v>
       </c>
     </row>
     <row r="5" spans="1:12">
